--- a/natmiOut/OldD0/LR-pairs_lrc2p/Fgf2-Nrp1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Fgf2-Nrp1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.683366466943602</v>
+        <v>0.747119</v>
       </c>
       <c r="H2">
-        <v>0.683366466943602</v>
+        <v>2.241357</v>
       </c>
       <c r="I2">
-        <v>0.02858827872672789</v>
+        <v>0.03096954854571248</v>
       </c>
       <c r="J2">
-        <v>0.02858827872672789</v>
+        <v>0.03096954854571248</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>41.9995319421088</v>
+        <v>52.91030366666666</v>
       </c>
       <c r="N2">
-        <v>41.9995319421088</v>
+        <v>158.730911</v>
       </c>
       <c r="O2">
-        <v>0.3638172288332625</v>
+        <v>0.4161415425564564</v>
       </c>
       <c r="P2">
-        <v>0.3638172288332625</v>
+        <v>0.4161415425564564</v>
       </c>
       <c r="Q2">
-        <v>28.70107175656385</v>
+        <v>39.53029316513633</v>
       </c>
       <c r="R2">
-        <v>28.70107175656385</v>
+        <v>355.772638486227</v>
       </c>
       <c r="S2">
-        <v>0.01040090834347105</v>
+        <v>0.01288771570408985</v>
       </c>
       <c r="T2">
-        <v>0.01040090834347105</v>
+        <v>0.01288771570408985</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.683366466943602</v>
+        <v>0.747119</v>
       </c>
       <c r="H3">
-        <v>0.683366466943602</v>
+        <v>2.241357</v>
       </c>
       <c r="I3">
-        <v>0.02858827872672789</v>
+        <v>0.03096954854571248</v>
       </c>
       <c r="J3">
-        <v>0.02858827872672789</v>
+        <v>0.03096954854571248</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>46.9218738416455</v>
+        <v>47.26005833333333</v>
       </c>
       <c r="N3">
-        <v>46.9218738416455</v>
+        <v>141.780175</v>
       </c>
       <c r="O3">
-        <v>0.4064565799509783</v>
+        <v>0.3717021489810786</v>
       </c>
       <c r="P3">
-        <v>0.4064565799509783</v>
+        <v>0.3717021489810786</v>
       </c>
       <c r="Q3">
-        <v>32.0648351495387</v>
+        <v>35.30888752194166</v>
       </c>
       <c r="R3">
-        <v>32.0648351495387</v>
+        <v>317.779987697475</v>
       </c>
       <c r="S3">
-        <v>0.01161989399795113</v>
+        <v>0.01151144774741516</v>
       </c>
       <c r="T3">
-        <v>0.01161989399795113</v>
+        <v>0.01151144774741516</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.683366466943602</v>
+        <v>0.747119</v>
       </c>
       <c r="H4">
-        <v>0.683366466943602</v>
+        <v>2.241357</v>
       </c>
       <c r="I4">
-        <v>0.02858827872672789</v>
+        <v>0.03096954854571248</v>
       </c>
       <c r="J4">
-        <v>0.02858827872672789</v>
+        <v>0.03096954854571248</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>26.5198889476648</v>
+        <v>26.97460733333333</v>
       </c>
       <c r="N4">
-        <v>26.5198889476648</v>
+        <v>80.923822</v>
       </c>
       <c r="O4">
-        <v>0.2297261912157592</v>
+        <v>0.2121563084624651</v>
       </c>
       <c r="P4">
-        <v>0.2297261912157592</v>
+        <v>0.2121563084624651</v>
       </c>
       <c r="Q4">
-        <v>18.12280281390237</v>
+        <v>20.15324165627267</v>
       </c>
       <c r="R4">
-        <v>18.12280281390237</v>
+        <v>181.379174906454</v>
       </c>
       <c r="S4">
-        <v>0.006567476385305713</v>
+        <v>0.006570385094207465</v>
       </c>
       <c r="T4">
-        <v>0.006567476385305713</v>
+        <v>0.006570385094207465</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.5922617627955</v>
+        <v>19.74619233333334</v>
       </c>
       <c r="H5">
-        <v>19.5922617627955</v>
+        <v>59.23857700000001</v>
       </c>
       <c r="I5">
-        <v>0.8196320236006495</v>
+        <v>0.8185184181638298</v>
       </c>
       <c r="J5">
-        <v>0.8196320236006495</v>
+        <v>0.8185184181638298</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>41.9995319421088</v>
+        <v>52.91030366666666</v>
       </c>
       <c r="N5">
-        <v>41.9995319421088</v>
+        <v>158.730911</v>
       </c>
       <c r="O5">
-        <v>0.3638172288332625</v>
+        <v>0.4161415425564564</v>
       </c>
       <c r="P5">
-        <v>0.3638172288332625</v>
+        <v>0.4161415425564564</v>
       </c>
       <c r="Q5">
-        <v>822.8658237246865</v>
+        <v>1044.777032617072</v>
       </c>
       <c r="R5">
-        <v>822.8658237246865</v>
+        <v>9402.993293553647</v>
       </c>
       <c r="S5">
-        <v>0.2981962514893875</v>
+        <v>0.3406195171455667</v>
       </c>
       <c r="T5">
-        <v>0.2981962514893875</v>
+        <v>0.3406195171455667</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.5922617627955</v>
+        <v>19.74619233333334</v>
       </c>
       <c r="H6">
-        <v>19.5922617627955</v>
+        <v>59.23857700000001</v>
       </c>
       <c r="I6">
-        <v>0.8196320236006495</v>
+        <v>0.8185184181638298</v>
       </c>
       <c r="J6">
-        <v>0.8196320236006495</v>
+        <v>0.8185184181638298</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>46.9218738416455</v>
+        <v>47.26005833333333</v>
       </c>
       <c r="N6">
-        <v>46.9218738416455</v>
+        <v>141.780175</v>
       </c>
       <c r="O6">
-        <v>0.4064565799509783</v>
+        <v>0.3717021489810786</v>
       </c>
       <c r="P6">
-        <v>0.4064565799509783</v>
+        <v>0.3717021489810786</v>
       </c>
       <c r="Q6">
-        <v>919.3056347063855</v>
+        <v>933.2062015345527</v>
       </c>
       <c r="R6">
-        <v>919.3056347063855</v>
+        <v>8398.855813810975</v>
       </c>
       <c r="S6">
-        <v>0.3331448291310196</v>
+        <v>0.3042450550120886</v>
       </c>
       <c r="T6">
-        <v>0.3331448291310196</v>
+        <v>0.3042450550120886</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>19.5922617627955</v>
+        <v>19.74619233333334</v>
       </c>
       <c r="H7">
-        <v>19.5922617627955</v>
+        <v>59.23857700000001</v>
       </c>
       <c r="I7">
-        <v>0.8196320236006495</v>
+        <v>0.8185184181638298</v>
       </c>
       <c r="J7">
-        <v>0.8196320236006495</v>
+        <v>0.8185184181638298</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>26.5198889476648</v>
+        <v>26.97460733333333</v>
       </c>
       <c r="N7">
-        <v>26.5198889476648</v>
+        <v>80.923822</v>
       </c>
       <c r="O7">
-        <v>0.2297261912157592</v>
+        <v>0.2121563084624651</v>
       </c>
       <c r="P7">
-        <v>0.2297261912157592</v>
+        <v>0.2121563084624651</v>
       </c>
       <c r="Q7">
-        <v>519.584606182916</v>
+        <v>532.6457845201439</v>
       </c>
       <c r="R7">
-        <v>519.584606182916</v>
+        <v>4793.812060681294</v>
       </c>
       <c r="S7">
-        <v>0.1882909429802425</v>
+        <v>0.1736538460061745</v>
       </c>
       <c r="T7">
-        <v>0.1882909429802425</v>
+        <v>0.1736538460061745</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.6281007591876</v>
+        <v>3.630999</v>
       </c>
       <c r="H8">
-        <v>3.6281007591876</v>
+        <v>10.892997</v>
       </c>
       <c r="I8">
-        <v>0.1517796976726226</v>
+        <v>0.1505120332904577</v>
       </c>
       <c r="J8">
-        <v>0.1517796976726226</v>
+        <v>0.1505120332904577</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>41.9995319421088</v>
+        <v>52.91030366666666</v>
       </c>
       <c r="N8">
-        <v>41.9995319421088</v>
+        <v>158.730911</v>
       </c>
       <c r="O8">
-        <v>0.3638172288332625</v>
+        <v>0.4161415425564564</v>
       </c>
       <c r="P8">
-        <v>0.3638172288332625</v>
+        <v>0.4161415425564564</v>
       </c>
       <c r="Q8">
-        <v>152.3785337246888</v>
+        <v>192.117259703363</v>
       </c>
       <c r="R8">
-        <v>152.3785337246888</v>
+        <v>1729.055337330267</v>
       </c>
       <c r="S8">
-        <v>0.05522006900040395</v>
+        <v>0.06263430970679977</v>
       </c>
       <c r="T8">
-        <v>0.05522006900040395</v>
+        <v>0.06263430970679978</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.6281007591876</v>
+        <v>3.630999</v>
       </c>
       <c r="H9">
-        <v>3.6281007591876</v>
+        <v>10.892997</v>
       </c>
       <c r="I9">
-        <v>0.1517796976726226</v>
+        <v>0.1505120332904577</v>
       </c>
       <c r="J9">
-        <v>0.1517796976726226</v>
+        <v>0.1505120332904577</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>46.9218738416455</v>
+        <v>47.26005833333333</v>
       </c>
       <c r="N9">
-        <v>46.9218738416455</v>
+        <v>141.780175</v>
       </c>
       <c r="O9">
-        <v>0.4064565799509783</v>
+        <v>0.3717021489810786</v>
       </c>
       <c r="P9">
-        <v>0.4064565799509783</v>
+        <v>0.3717021489810786</v>
       </c>
       <c r="Q9">
-        <v>170.2372861073788</v>
+        <v>171.601224548275</v>
       </c>
       <c r="R9">
-        <v>170.2372861073788</v>
+        <v>1544.411020934475</v>
       </c>
       <c r="S9">
-        <v>0.06169185682200767</v>
+        <v>0.05594564622157475</v>
       </c>
       <c r="T9">
-        <v>0.06169185682200767</v>
+        <v>0.05594564622157477</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.6281007591876</v>
+        <v>3.630999</v>
       </c>
       <c r="H10">
-        <v>3.6281007591876</v>
+        <v>10.892997</v>
       </c>
       <c r="I10">
-        <v>0.1517796976726226</v>
+        <v>0.1505120332904577</v>
       </c>
       <c r="J10">
-        <v>0.1517796976726226</v>
+        <v>0.1505120332904577</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>26.5198889476648</v>
+        <v>26.97460733333333</v>
       </c>
       <c r="N10">
-        <v>26.5198889476648</v>
+        <v>80.923822</v>
       </c>
       <c r="O10">
-        <v>0.2297261912157592</v>
+        <v>0.2121563084624651</v>
       </c>
       <c r="P10">
-        <v>0.2297261912157592</v>
+        <v>0.2121563084624651</v>
       </c>
       <c r="Q10">
-        <v>96.21682922459351</v>
+        <v>97.944772252726</v>
       </c>
       <c r="R10">
-        <v>96.21682922459351</v>
+        <v>881.502950274534</v>
       </c>
       <c r="S10">
-        <v>0.03486777185021103</v>
+        <v>0.03193207736208316</v>
       </c>
       <c r="T10">
-        <v>0.03486777185021103</v>
+        <v>0.03193207736208317</v>
       </c>
     </row>
   </sheetData>
